--- a/ocms/target/test-classes/TestData/IntentMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
@@ -420,13 +420,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -479,6 +479,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
@@ -600,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/IntentMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentMappingData.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
@@ -13,12 +18,11 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Product</t>
   </si>
@@ -76,6 +80,15 @@
       ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
   FROM [Product_OCM].[dbo].[GBL_IntentSkill_Mapping]</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>VBank</t>
+  </si>
+  <si>
+    <t>ATM</t>
   </si>
 </sst>
 </file>
@@ -127,6 +140,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -174,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +446,7 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -462,6 +478,21 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -487,7 +518,7 @@
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -553,7 +584,7 @@
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>

--- a/ocms/target/test-classes/TestData/IntentMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentMappingData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J12"/>
 </workbook>
 </file>
 
@@ -54,12 +50,6 @@
     <t xml:space="preserve">Updated VDN </t>
   </si>
   <si>
-    <t>Modify Reaosn</t>
-  </si>
-  <si>
-    <t>44444</t>
-  </si>
-  <si>
     <t>Modified</t>
   </si>
   <si>
@@ -73,22 +63,28 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>VBank</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>40007</t>
+  </si>
+  <si>
+    <t>Modify Reason</t>
   </si>
   <si>
     <t>SELECT [INTENT_TALENT] as 'Intent Talent'
       ,[VDN] as VDN
       ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
-  FROM [Product_OCM].[dbo].[GBL_IntentSkill_Mapping]</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>VBank</t>
-  </si>
-  <si>
-    <t>ATM</t>
+  FROM [GBL_IntentSkill_Mapping]</t>
   </si>
 </sst>
 </file>
@@ -436,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -477,22 +473,22 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -505,7 +501,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -555,13 +551,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -574,7 +570,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -618,10 +614,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -633,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,12 +640,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/IntentMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="3795"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J12"/>
+  <oleSize ref="A1:R10"/>
 </workbook>
 </file>
 
@@ -432,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -629,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/IntentMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentMappingData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="3795"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="15060" windowHeight="3640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R10"/>
+  <oleSize ref="A1:M11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>Product</t>
   </si>
@@ -50,6 +50,9 @@
     <t xml:space="preserve">Updated VDN </t>
   </si>
   <si>
+    <t>Modify Reaosn</t>
+  </si>
+  <si>
     <t>Modified</t>
   </si>
   <si>
@@ -63,28 +66,25 @@
   </si>
   <si>
     <t>Query</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>VBank</t>
-  </si>
-  <si>
-    <t>ATM</t>
-  </si>
-  <si>
-    <t>40007</t>
-  </si>
-  <si>
-    <t>Modify Reason</t>
   </si>
   <si>
     <t>SELECT [INTENT_TALENT] as 'Intent Talent'
       ,[VDN] as VDN
       ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
-  FROM [GBL_IntentSkill_Mapping]</t>
+  FROM [Product_OCM].[dbo].[GBL_IntentSkill_Mapping]</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Vbank</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>40007</t>
   </si>
 </sst>
 </file>
@@ -136,9 +136,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -186,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,7 +218,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,17 +429,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -473,22 +470,22 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -501,20 +498,20 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,10 +531,10 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -551,13 +548,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -567,20 +564,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -614,10 +611,30 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -630,22 +647,22 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="47.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/IntentMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentMappingData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="15060" windowHeight="3640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M11"/>
+  <oleSize ref="A1:N24"/>
 </workbook>
 </file>
 
@@ -136,6 +136,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -183,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,7 +221,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,13 +436,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -473,17 +476,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -497,21 +500,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -566,18 +569,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -613,11 +616,11 @@
       <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -633,7 +636,7 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -650,12 +653,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.453125" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>

--- a/ocms/target/test-classes/TestData/IntentMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/target/test-classes/TestData/IntentMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentMappingData.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N24"/>
 </workbook>
 </file>
 
@@ -47,12 +51,6 @@
     <t>Account</t>
   </si>
   <si>
-    <t xml:space="preserve">Updated VDN </t>
-  </si>
-  <si>
-    <t>Modify Reaosn</t>
-  </si>
-  <si>
     <t>Modified</t>
   </si>
   <si>
@@ -60,9 +58,6 @@
   </si>
   <si>
     <t>Deleted</t>
-  </si>
-  <si>
-    <t>40004</t>
   </si>
   <si>
     <t>Query</t>
@@ -85,6 +80,15 @@
   </si>
   <si>
     <t>40007</t>
+  </si>
+  <si>
+    <t>Updated VDN</t>
+  </si>
+  <si>
+    <t>Modify Reason</t>
+  </si>
+  <si>
+    <t>40009</t>
   </si>
 </sst>
 </file>
@@ -433,7 +437,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,22 +477,22 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -500,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,10 +535,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -551,13 +555,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -569,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -614,10 +618,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -634,10 +638,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -660,12 +664,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/IntentMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentMappingData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39040B36-882B-4448-A460-70039004CCF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,6 +224,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -258,6 +276,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,20 +468,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -480,17 +515,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>16</v>
       </c>
@@ -501,24 +536,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -570,21 +605,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -624,7 +659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -650,24 +685,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="47.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>

--- a/ocms/target/test-classes/TestData/IntentMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/IntentMappingData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39040B36-882B-4448-A460-70039004CCF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4535CBAE-CFDF-4616-8285-86BF1A98D2C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Product</t>
   </si>
@@ -475,13 +475,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -515,17 +515,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>16</v>
       </c>
@@ -543,17 +543,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -609,17 +609,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -659,25 +659,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -692,17 +676,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.453125" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
